--- a/debug/MISA.ImportDemo.Code/Danh sách nhân viên.xlsx
+++ b/debug/MISA.ImportDemo.Code/Danh sách nhân viên.xlsx
@@ -1834,7 +1834,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
